--- a/sample-data/exams edexcel 2018.xlsx
+++ b/sample-data/exams edexcel 2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="WJEC CBAC 2018" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -143,6 +143,63 @@
   </si>
   <si>
     <t>Compiter Science</t>
+  </si>
+  <si>
+    <t>French Paper 1: Listening and understanding in French</t>
+  </si>
+  <si>
+    <t>French Paper 3: Reading and understanding in French</t>
+  </si>
+  <si>
+    <t>Combined Science Biology 1</t>
+  </si>
+  <si>
+    <t>Science (Biology) Biology 1</t>
+  </si>
+  <si>
+    <t>1h 10m</t>
+  </si>
+  <si>
+    <t>0h 35m</t>
+  </si>
+  <si>
+    <t>0h 45m</t>
+  </si>
+  <si>
+    <t>1h 00m</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>1SC0 1BF</t>
+  </si>
+  <si>
+    <t>1SC0 1BH</t>
+  </si>
+  <si>
+    <t>1BI0 1F</t>
+  </si>
+  <si>
+    <t>1BI0 1H</t>
+  </si>
+  <si>
+    <t>Combined Science</t>
+  </si>
+  <si>
+    <t>1FR0 1F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1FR0 1H </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1FR0 3F </t>
+  </si>
+  <si>
+    <t>1FR0 3H</t>
   </si>
 </sst>
 </file>
@@ -192,7 +249,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="862">
+  <cellStyleXfs count="872">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -477,6 +534,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1061,7 +1128,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="283"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="862">
+  <cellStyles count="872">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1781,6 +1848,16 @@
     <cellStyle name="Followed Hyperlink" xfId="859" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="860" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="861" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="862" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="863" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="864" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="865" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="866" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="867" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="868" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="869" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="870" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="871" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2252,11 +2329,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5:E8"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2491,6 +2568,214 @@
       </c>
       <c r="J8" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43235</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2">
+        <v>43235</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43235</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2">
+        <v>43235</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="2">
+        <v>43235</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="2">
+        <v>43235</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2">
+        <v>43235</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2">
+        <v>43235</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/sample-data/exams edexcel 2018.xlsx
+++ b/sample-data/exams edexcel 2018.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <workbookPr dateCompatibility="0" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alic/workspace/examdb/sample-data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7BB11DD7-99E4-C54E-B28B-6ECF95B7F61E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WJEC CBAC 2018" sheetId="1" r:id="rId1"/>
     <sheet name="References" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'WJEC CBAC 2018'!$A$1:$L$189</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'WJEC CBAC 2018'!$A$1:$L$113</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -23,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="59">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="925" uniqueCount="320">
   <si>
     <t>Date</t>
   </si>
@@ -139,12 +148,6 @@
     <t>1h 40m</t>
   </si>
   <si>
-    <t>Edexcel</t>
-  </si>
-  <si>
-    <t>Compiter Science</t>
-  </si>
-  <si>
     <t>French Paper 1: Listening and understanding in French</t>
   </si>
   <si>
@@ -200,13 +203,805 @@
   </si>
   <si>
     <t>1FR0 3H</t>
+  </si>
+  <si>
+    <t>Physical Education Paper 1: Fitness and Body Systems</t>
+  </si>
+  <si>
+    <t>Physical Education (short course) Paper 1: Theory</t>
+  </si>
+  <si>
+    <t>Urdu Unit 1: Listening and Understanding in Urdu Foundation Tier</t>
+  </si>
+  <si>
+    <t>Urdu Unit 1: Listening and Understanding in Urdu Higher Tier</t>
+  </si>
+  <si>
+    <t>Urdu Unit 3: Reading and Understanding in Urdu Foundation Tier</t>
+  </si>
+  <si>
+    <t>Urdu Unit 3: Reading and Understanding in Urdu Higher Tier</t>
+  </si>
+  <si>
+    <t>Combined Science Chemistry 1</t>
+  </si>
+  <si>
+    <t>Science (Chemistry) Chemistry 1</t>
+  </si>
+  <si>
+    <t>French Paper 4: Writing in French</t>
+  </si>
+  <si>
+    <t>Religious Studies (Short Course) A Paper 4: Area of Study 4 – Study of Judaism</t>
+  </si>
+  <si>
+    <t>Religious Studies (Short Course) B Paper 2: Area of Study 2 — Religion, Peace and Conflict</t>
+  </si>
+  <si>
+    <t>Religious Studies A Paper 2: Area of Study 2 – Study of Second Religion</t>
+  </si>
+  <si>
+    <t>Religious Studies B Paper 2: Area of Study 2 - Religion, Peace and Conflict</t>
+  </si>
+  <si>
+    <t>Computer Science Paper 2: Application of Computational Thinking</t>
+  </si>
+  <si>
+    <t>ICT Unit 3: Exploring Digital Design</t>
+  </si>
+  <si>
+    <t>Drama Component 3: Theatre Makers in Practice</t>
+  </si>
+  <si>
+    <t>Physical Education Paper 2: Health and Performance</t>
+  </si>
+  <si>
+    <t>EDEXCEL</t>
+  </si>
+  <si>
+    <t>1PE0 01</t>
+  </si>
+  <si>
+    <t>3PE0 01</t>
+  </si>
+  <si>
+    <t>5UR01 1F</t>
+  </si>
+  <si>
+    <t>5UR01 1H</t>
+  </si>
+  <si>
+    <t>5UR03 3F</t>
+  </si>
+  <si>
+    <t>5UR03 3H</t>
+  </si>
+  <si>
+    <t>3RA0 04</t>
+  </si>
+  <si>
+    <t>3RB0 2A-2G</t>
+  </si>
+  <si>
+    <t>1RA0 2A-2G</t>
+  </si>
+  <si>
+    <t>1RB0 2A-2G</t>
+  </si>
+  <si>
+    <t>1SC0 1CF</t>
+  </si>
+  <si>
+    <t>1SC0 1CH</t>
+  </si>
+  <si>
+    <t>1CH0 1F</t>
+  </si>
+  <si>
+    <t>1CH0 1H</t>
+  </si>
+  <si>
+    <t>1CP1 02</t>
+  </si>
+  <si>
+    <t>5IT03 01</t>
+  </si>
+  <si>
+    <t>1FR0 4F</t>
+  </si>
+  <si>
+    <t>1FR0 4H</t>
+  </si>
+  <si>
+    <t>1PE0 02</t>
+  </si>
+  <si>
+    <t>1DR0 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1h 45m </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0h 25m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0h 35m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0h 50m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0h 50m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1h 10m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2h 00m </t>
+  </si>
+  <si>
+    <t>1h 20m</t>
+  </si>
+  <si>
+    <t>1h 15m</t>
+  </si>
+  <si>
+    <t>Physical Education</t>
+  </si>
+  <si>
+    <t>Urdu</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Drama</t>
+  </si>
+  <si>
+    <t>Japanese Unit 1: Listening And Understanding in Japanese</t>
+  </si>
+  <si>
+    <t>Japanese Unit 3: Reading And Understanding in Japanese</t>
+  </si>
+  <si>
+    <t>English Literature Paper 1: Shakespeare and Post-1914 Literature</t>
+  </si>
+  <si>
+    <t>Applied Business Unit 2: Financial Records</t>
+  </si>
+  <si>
+    <t>Chinese Unit 1: Listening And Understanding in Chinese Foundation Tier</t>
+  </si>
+  <si>
+    <t>Chinese Unit 1: Listening And Understanding in Chinese Higher Tier</t>
+  </si>
+  <si>
+    <t>Chinese Unit 3: Reading And Understanding in Chinese Foundation Tier</t>
+  </si>
+  <si>
+    <t>Chinese Unit 3: Reading And Understanding in Chinese Higher Tier</t>
+  </si>
+  <si>
+    <t>Leisure and Tourism Unit 1: The Leisure And Tourism Industry</t>
+  </si>
+  <si>
+    <t>Manufacturing Unit 3: Application Of Technology In Engineering And Manufacturing</t>
+  </si>
+  <si>
+    <t>Geography A Paper 1: The Physical Environment</t>
+  </si>
+  <si>
+    <t>Geography B Paper 1: Global Geographical Issues</t>
+  </si>
+  <si>
+    <t>Business Unit 1: Introduction To Small Business</t>
+  </si>
+  <si>
+    <t>Business (short course) Unit 6: Introduction To Small Business</t>
+  </si>
+  <si>
+    <t>Italian Unit 1: Listening and understanding in Italian Foundation Tier</t>
+  </si>
+  <si>
+    <t>Italian Unit 1: Listening and understanding in Italian Higher Tier</t>
+  </si>
+  <si>
+    <t>Italian Unit 3: Reading and understanding in Italian Foundation Tier</t>
+  </si>
+  <si>
+    <t>Italian Unit 3: Reading and understanding in Italian Higher Tier</t>
+  </si>
+  <si>
+    <t>Psychology Unit 1: Perception and Dreaming</t>
+  </si>
+  <si>
+    <t>Combined Science Physics 1</t>
+  </si>
+  <si>
+    <t>Science (Physics) Physics 1</t>
+  </si>
+  <si>
+    <t>0h 55m</t>
+  </si>
+  <si>
+    <t>0h 40m</t>
+  </si>
+  <si>
+    <t>0h 25m</t>
+  </si>
+  <si>
+    <t>Mathematics Paper 1: Non-Calculator Foundation Tier</t>
+  </si>
+  <si>
+    <t>Mathematics Paper 1: Non-Calculator Higher Tier</t>
+  </si>
+  <si>
+    <t>Religious Studies (Short Course) A Paper 3: Area of Study 3 – Study of Islam</t>
+  </si>
+  <si>
+    <t>Religious Studies A Paper 3: Area of Study 3 – Philosophy and Ethics</t>
+  </si>
+  <si>
+    <t>Religious Studies A Paper 4: Area of Study 4 – Textual Studies</t>
+  </si>
+  <si>
+    <t>Religious Studies B Paper 3: Area of Study 3 – Religion, Philosophy and Social Justice</t>
+  </si>
+  <si>
+    <t>English Literature Paper 2: 19th Century Novel and Poetry since 1789</t>
+  </si>
+  <si>
+    <t>Design and Technology (electronic products) Unit 2 : Knowledge And Understanding Of Electronic Products</t>
+  </si>
+  <si>
+    <t>Design and Technology (textiles technology) Unit 2: Knowledge And Understanding Of Textiles Technology</t>
+  </si>
+  <si>
+    <t>Japanese Unit 4: Writing In Japanese</t>
+  </si>
+  <si>
+    <t>Leisure and Tourism Unit 3: The Leisure And Tourism Environment</t>
+  </si>
+  <si>
+    <t>1ET0 02</t>
+  </si>
+  <si>
+    <t>1MA1 1F</t>
+  </si>
+  <si>
+    <t>1MA1 1H</t>
+  </si>
+  <si>
+    <t>5EP02 01</t>
+  </si>
+  <si>
+    <t>5JA04 01</t>
+  </si>
+  <si>
+    <t>5TT02 01</t>
+  </si>
+  <si>
+    <t>5LT03 01</t>
+  </si>
+  <si>
+    <t>3RA0 03</t>
+  </si>
+  <si>
+    <t>1RA0 3A-3C</t>
+  </si>
+  <si>
+    <t>1RA0 4A-4B</t>
+  </si>
+  <si>
+    <t>1RB0 3A-3G</t>
+  </si>
+  <si>
+    <t>2h 15m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1h 00m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1h 30m </t>
+  </si>
+  <si>
+    <t>5JA01 01</t>
+  </si>
+  <si>
+    <t>5CN01 1F</t>
+  </si>
+  <si>
+    <t>5JA03 01</t>
+  </si>
+  <si>
+    <t>5CN01 1H</t>
+  </si>
+  <si>
+    <t>5CN03 3F</t>
+  </si>
+  <si>
+    <t>5CN03 3H</t>
+  </si>
+  <si>
+    <t>5LT01 01</t>
+  </si>
+  <si>
+    <t>5EM03 3A-3F</t>
+  </si>
+  <si>
+    <t>1ET0 01</t>
+  </si>
+  <si>
+    <t>1GA0 01</t>
+  </si>
+  <si>
+    <t>1GB0 01</t>
+  </si>
+  <si>
+    <t>5AB02 01</t>
+  </si>
+  <si>
+    <t>5BS01 01</t>
+  </si>
+  <si>
+    <t>5IN01 1F</t>
+  </si>
+  <si>
+    <t>5BS06 01</t>
+  </si>
+  <si>
+    <t>5IN01 1H</t>
+  </si>
+  <si>
+    <t>5IN03 3F</t>
+  </si>
+  <si>
+    <t>5IN03 3H</t>
+  </si>
+  <si>
+    <t>5PS01 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1SC0 1PF </t>
+  </si>
+  <si>
+    <t>1SC0 1PH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1PH0 1F </t>
+  </si>
+  <si>
+    <t>1PH0 1H</t>
+  </si>
+  <si>
+    <t>Japanaese</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>Leisure and Tourism</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>English Literature</t>
+  </si>
+  <si>
+    <t>Geography</t>
+  </si>
+  <si>
+    <t>Applied Business</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>Psychology</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>Design and Technology (electronic products)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design and Technology (textiles technology) </t>
+  </si>
+  <si>
+    <t>1HI0 10-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">History Paper 1: Thematic study and historic environment </t>
+  </si>
+  <si>
+    <t>5PS02 01</t>
+  </si>
+  <si>
+    <t>Psychology Unit 2: Social and Biological Psychological Debates</t>
+  </si>
+  <si>
+    <t>1GA0 02</t>
+  </si>
+  <si>
+    <t>1GB0 02</t>
+  </si>
+  <si>
+    <t>5AS01 01</t>
+  </si>
+  <si>
+    <t>1SP0 1F</t>
+  </si>
+  <si>
+    <t>1SP0 1H</t>
+  </si>
+  <si>
+    <t>1SP0 3F</t>
+  </si>
+  <si>
+    <t>1SP0 3H</t>
+  </si>
+  <si>
+    <t>5BS03 01</t>
+  </si>
+  <si>
+    <t>5BS04 01</t>
+  </si>
+  <si>
+    <t>5BS05 01</t>
+  </si>
+  <si>
+    <t>1MU0 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1MA1 2F </t>
+  </si>
+  <si>
+    <t>1MA1 2H</t>
+  </si>
+  <si>
+    <t>5AB04 01</t>
+  </si>
+  <si>
+    <t>1EN0 02</t>
+  </si>
+  <si>
+    <t>1HI0 20-29</t>
+  </si>
+  <si>
+    <t>1EN0 01</t>
+  </si>
+  <si>
+    <t>English Language Paper 1: Fiction and Imaginative
+Writing</t>
+  </si>
+  <si>
+    <t>Geography A Paper 2: The Human Environment</t>
+  </si>
+  <si>
+    <t>Geography B Paper 2: UK Geographical Issues</t>
+  </si>
+  <si>
+    <t>Astronomy Unit 1: Understanding the Universe</t>
+  </si>
+  <si>
+    <t>Spanish Paper 1: Listening and understanding in Spanish</t>
+  </si>
+  <si>
+    <t>Spanish Paper 3: Reading and understanding in Spanish</t>
+  </si>
+  <si>
+    <t>Business Unit 3: Building a Business</t>
+  </si>
+  <si>
+    <t>Business Unit 4: Business Communications</t>
+  </si>
+  <si>
+    <t>Business Unit 5: Introduction To Economic Understanding</t>
+  </si>
+  <si>
+    <t>Music Paper 3: Appraising</t>
+  </si>
+  <si>
+    <t>Mathematics Paper 2: Calculator Foundation Tier</t>
+  </si>
+  <si>
+    <t>Mathematics Paper 2: Calculator Higher Tier</t>
+  </si>
+  <si>
+    <t>Applied Business Unit 4: Financial Planning And Forecasting</t>
+  </si>
+  <si>
+    <t>English Language Paper 2: Non-Fiction and Transactional Writing</t>
+  </si>
+  <si>
+    <t>History Paper 2: Period study and British depth study</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>English Language</t>
+  </si>
+  <si>
+    <t>Astronomy</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>2h 00m</t>
+  </si>
+  <si>
+    <t>1SC0 2BF</t>
+  </si>
+  <si>
+    <t>1SC0 2BH</t>
+  </si>
+  <si>
+    <t>1BI0 2F</t>
+  </si>
+  <si>
+    <t>1BI0 2H</t>
+  </si>
+  <si>
+    <t>1GA0 03</t>
+  </si>
+  <si>
+    <t>1GB0 03</t>
+  </si>
+  <si>
+    <t>1MA1 3F</t>
+  </si>
+  <si>
+    <t>1MA1 3H</t>
+  </si>
+  <si>
+    <t>1HI0 30-33</t>
+  </si>
+  <si>
+    <t>Combined Science Chemistry 2</t>
+  </si>
+  <si>
+    <t>1SC0 2CF</t>
+  </si>
+  <si>
+    <t>1SC0 2CH</t>
+  </si>
+  <si>
+    <t>1CH0 2F</t>
+  </si>
+  <si>
+    <t>1CH0 2H</t>
+  </si>
+  <si>
+    <t>5HS01 01</t>
+  </si>
+  <si>
+    <t>5RU01 01</t>
+  </si>
+  <si>
+    <t>5RU03 01</t>
+  </si>
+  <si>
+    <t>1SP0 4F</t>
+  </si>
+  <si>
+    <t>1SP0 4H</t>
+  </si>
+  <si>
+    <t>Spanish Paper 4: Writing in Spanish</t>
+  </si>
+  <si>
+    <t>Science (Chemistry) Chemistry 2</t>
+  </si>
+  <si>
+    <t>Health &amp; Social Care Unit 1: Understanding Personal Development and Relationships</t>
+  </si>
+  <si>
+    <t>Russian Unit 1: Listening And Understanding in Russian</t>
+  </si>
+  <si>
+    <t>Russian Unit 3: Reading And Understanding in Russian</t>
+  </si>
+  <si>
+    <t>Combined Science Physics 2</t>
+  </si>
+  <si>
+    <t>Science (Physics) Physics 2</t>
+  </si>
+  <si>
+    <t>1SC0 2PF</t>
+  </si>
+  <si>
+    <t>1SC0 2PH</t>
+  </si>
+  <si>
+    <t>1PH0 2F</t>
+  </si>
+  <si>
+    <t>1PH0 2H</t>
+  </si>
+  <si>
+    <t>Citizenship Studies Paper 1</t>
+  </si>
+  <si>
+    <t>1CS0 01</t>
+  </si>
+  <si>
+    <t>5RM02 01</t>
+  </si>
+  <si>
+    <t>Design and Technology (resistant materials) Unit 2:
+Knowledge And Understanding Of Resistant Materials
+Technology</t>
+  </si>
+  <si>
+    <t>Combined Science Biology 2</t>
+  </si>
+  <si>
+    <t>Science (Biology) Biology 2</t>
+  </si>
+  <si>
+    <t>Geography A Paper 3: Geographical Investigations: Fieldwork and UK Challenges</t>
+  </si>
+  <si>
+    <t>Geography B Paper 3: People and Environment Issues – Making Geographical Decisions</t>
+  </si>
+  <si>
+    <t>Mathematics Paper 3: Calculator Foundation Tier</t>
+  </si>
+  <si>
+    <t>Mathematics Paper 3: Calculator Higher Tier</t>
+  </si>
+  <si>
+    <t>History Paper 3: Modern depth study</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>Health &amp; Social Care</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>Design and Technology (resistant materials)</t>
+  </si>
+  <si>
+    <t>Citizenship</t>
+  </si>
+  <si>
+    <t>Greek</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>Design and Technology (graphic products)</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>1CS0 02</t>
+  </si>
+  <si>
+    <t>1GN0 1F</t>
+  </si>
+  <si>
+    <t>1GN0 1H</t>
+  </si>
+  <si>
+    <t>1GN0 3F</t>
+  </si>
+  <si>
+    <t>5AR01 01</t>
+  </si>
+  <si>
+    <t>1GN0 3H</t>
+  </si>
+  <si>
+    <t>5AR03 01</t>
+  </si>
+  <si>
+    <t>5GR02 01</t>
+  </si>
+  <si>
+    <t>5GK01 01</t>
+  </si>
+  <si>
+    <t>5GK03 01</t>
+  </si>
+  <si>
+    <t>5HS04 01</t>
+  </si>
+  <si>
+    <t>5RU04 01</t>
+  </si>
+  <si>
+    <t>5AR04 01</t>
+  </si>
+  <si>
+    <t>1GN0 4F</t>
+  </si>
+  <si>
+    <t>1GN0 4H</t>
+  </si>
+  <si>
+    <t>5ST1F 01</t>
+  </si>
+  <si>
+    <t>5ST1H 01</t>
+  </si>
+  <si>
+    <t>5GK04 01</t>
+  </si>
+  <si>
+    <t>Citizenship Studies Paper 2</t>
+  </si>
+  <si>
+    <t>German Paper 1: Listening and understanding in German</t>
+  </si>
+  <si>
+    <t>German Paper 3: Reading and understanding in German</t>
+  </si>
+  <si>
+    <t>Design and Technology (graphic products) Unit 2: Knowledge And Understanding Of Graphic Products</t>
+  </si>
+  <si>
+    <t>Arabic Unit 1: Listening And Understanding In Arabic</t>
+  </si>
+  <si>
+    <t>Arabic Unit 3: Reading And Understanding In Arabic</t>
+  </si>
+  <si>
+    <t>Greek Unit 1: Listening And Understanding in Greek</t>
+  </si>
+  <si>
+    <t>Greek Unit 3: Reading And Understanding in Greek</t>
+  </si>
+  <si>
+    <t>Health &amp; Social Care Unit 4: Health, Social Care And Early Years In Practice</t>
+  </si>
+  <si>
+    <t>Russian Unit 4: Writing In Russian</t>
+  </si>
+  <si>
+    <t>Arabic Unit 4: Writing In Arabic</t>
+  </si>
+  <si>
+    <t>German Paper 4: Writing in German</t>
+  </si>
+  <si>
+    <t>Statistics Unit 1: Foundation Tier</t>
+  </si>
+  <si>
+    <t>Statistics Unit 1: Higher Tier</t>
+  </si>
+  <si>
+    <t>Greek Unit 4: Writing In Greek</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -231,6 +1026,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -242,8 +1045,8 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1123,10 +1926,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="283"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="872">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2004,11 +2811,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2127,22 +2942,22 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:tint val="50%"/>
+                <a:satMod val="300%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="35%">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:tint val="37%"/>
+                <a:satMod val="300%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="15%"/>
+                <a:satMod val="350%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -2150,18 +2965,18 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="130000"/>
+                <a:tint val="100%"/>
+                <a:shade val="100%"/>
+                <a:satMod val="130%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="50%"/>
+                <a:shade val="100%"/>
+                <a:satMod val="350%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -2172,8 +2987,8 @@
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
+              <a:shade val="95%"/>
+              <a:satMod val="105%"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
@@ -2196,7 +3011,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="38%"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -2205,7 +3020,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="35%"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -2214,7 +3029,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="35%"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -2237,47 +3052,47 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="40%"/>
+                <a:satMod val="350%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="40%">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="45%"/>
+                <a:shade val="99%"/>
+                <a:satMod val="350%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="20%"/>
+                <a:satMod val="255%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect l="50%" t="-80%" r="50%" b="180%"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
+                <a:tint val="80%"/>
+                <a:satMod val="300%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
+                <a:shade val="30%"/>
+                <a:satMod val="200%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect l="50%" t="50%" r="50%" b="50%"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -2328,33 +3143,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.83203125" customWidth="1"/>
     <col min="5" max="5" width="33.6640625" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.6640625" customWidth="1"/>
+    <col min="8" max="8" width="3.1640625" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -2388,12 +3203,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="2">
-        <v>43234</v>
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="d">
+        <v>2018-05-14</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -2402,7 +3217,7 @@
         <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>277</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -2414,12 +3229,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="2">
-        <v>43234</v>
+        <v>74</v>
+      </c>
+      <c r="B3" s="2" t="d">
+        <v>2018-05-14</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -2440,12 +3255,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="2">
-        <v>43234</v>
+        <v>74</v>
+      </c>
+      <c r="B4" s="2" t="d">
+        <v>2018-05-14</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -2466,12 +3281,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="2">
-        <v>43234</v>
+        <v>74</v>
+      </c>
+      <c r="B5" s="2" t="d">
+        <v>2018-05-14</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -2492,12 +3307,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="2">
-        <v>43234</v>
+        <v>74</v>
+      </c>
+      <c r="B6" s="2" t="d">
+        <v>2018-05-14</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -2518,12 +3333,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="2">
-        <v>43234</v>
+        <v>74</v>
+      </c>
+      <c r="B7" s="2" t="d">
+        <v>2018-05-14</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -2544,12 +3359,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="2">
-        <v>43234</v>
+        <v>74</v>
+      </c>
+      <c r="B8" s="2" t="d">
+        <v>2018-05-14</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -2570,219 +3385,3210 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="2" t="d">
+        <v>2018-05-15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="2">
-        <v>43235</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="J9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="2" t="d">
+        <v>2018-05-15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="2" t="d">
+        <v>2018-05-15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>55</v>
       </c>
-      <c r="E9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="2" t="d">
+        <v>2018-05-15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="2">
-        <v>43235</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="2">
-        <v>43235</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="2">
-        <v>43235</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="2">
-        <v>43235</v>
+        <v>74</v>
+      </c>
+      <c r="B13" s="2" t="d">
+        <v>2018-05-15</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
         <v>34</v>
       </c>
       <c r="G13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" t="s">
         <v>42</v>
       </c>
-      <c r="J13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="2">
-        <v>43235</v>
+        <v>74</v>
+      </c>
+      <c r="B14" s="2" t="d">
+        <v>2018-05-15</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
         <v>34</v>
       </c>
       <c r="G14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" t="s">
         <v>42</v>
       </c>
-      <c r="J14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="2">
-        <v>43235</v>
+        <v>74</v>
+      </c>
+      <c r="B15" s="2" t="d">
+        <v>2018-05-15</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
         <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="2">
-        <v>43235</v>
+        <v>74</v>
+      </c>
+      <c r="B16" s="2" t="d">
+        <v>2018-05-15</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
         <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J16" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="2" t="d">
+        <v>2018-05-16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="2" t="d">
+        <v>2018-05-16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="2" t="d">
+        <v>2018-05-16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="2" t="d">
+        <v>2018-05-16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="2" t="d">
+        <v>2018-05-16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="2" t="d">
+        <v>2018-05-16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="2" t="d">
+        <v>2018-05-16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="2" t="d">
+        <v>2018-05-16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="2" t="d">
+        <v>2018-05-16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="2" t="d">
+        <v>2018-05-16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" t="s">
+        <v>69</v>
+      </c>
+      <c r="J26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="2" t="d">
+        <v>2018-05-17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="2" t="d">
+        <v>2018-05-17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="2" t="d">
+        <v>2018-05-17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="2" t="d">
+        <v>2018-05-17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" t="s">
+        <v>64</v>
+      </c>
+      <c r="J30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="2" t="d">
+        <v>2018-05-17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" t="s">
+        <v>277</v>
+      </c>
+      <c r="F31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" t="s">
+        <v>70</v>
+      </c>
+      <c r="J31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="2" t="d">
+        <v>2018-05-17</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" t="s">
+        <v>71</v>
+      </c>
+      <c r="J32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="2" t="d">
+        <v>2018-05-18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" t="s">
+        <v>65</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="2" t="d">
+        <v>2018-05-18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" t="s">
+        <v>65</v>
+      </c>
+      <c r="J34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="2" t="d">
+        <v>2018-05-18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" t="s">
+        <v>72</v>
+      </c>
+      <c r="J35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="2" t="d">
+        <v>2018-05-18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" t="s">
+        <v>73</v>
+      </c>
+      <c r="J36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="2" t="d">
+        <v>2018-05-21</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" t="s">
+        <v>180</v>
+      </c>
+      <c r="F37" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" t="s">
+        <v>108</v>
+      </c>
+      <c r="J37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="2" t="d">
+        <v>2018-05-21</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>159</v>
+      </c>
+      <c r="E38" t="s">
+        <v>180</v>
+      </c>
+      <c r="F38" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" t="s">
+        <v>109</v>
+      </c>
+      <c r="J38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="2" t="d">
+        <v>2018-05-21</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" t="s">
+        <v>181</v>
+      </c>
+      <c r="F39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" t="s">
+        <v>112</v>
+      </c>
+      <c r="J39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="2" t="d">
+        <v>2018-05-21</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" t="s">
+        <v>181</v>
+      </c>
+      <c r="F40" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" t="s">
+        <v>113</v>
+      </c>
+      <c r="J40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="2" t="d">
+        <v>2018-05-21</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" t="s">
+        <v>181</v>
+      </c>
+      <c r="F41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" t="s">
+        <v>114</v>
+      </c>
+      <c r="J41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="2" t="d">
+        <v>2018-05-21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>162</v>
+      </c>
+      <c r="E42" t="s">
+        <v>181</v>
+      </c>
+      <c r="F42" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" t="s">
+        <v>115</v>
+      </c>
+      <c r="J42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="2" t="d">
+        <v>2018-05-21</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E43" t="s">
+        <v>182</v>
+      </c>
+      <c r="F43" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" t="s">
+        <v>116</v>
+      </c>
+      <c r="J43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="2" t="d">
+        <v>2018-05-21</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>164</v>
+      </c>
+      <c r="E44" t="s">
+        <v>183</v>
+      </c>
+      <c r="F44" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" t="s">
+        <v>117</v>
+      </c>
+      <c r="J44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="2" t="d">
+        <v>2018-05-22</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>165</v>
+      </c>
+      <c r="E45" t="s">
+        <v>184</v>
+      </c>
+      <c r="F45" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" t="s">
+        <v>110</v>
+      </c>
+      <c r="J45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="2" t="d">
+        <v>2018-05-22</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>166</v>
+      </c>
+      <c r="E46" t="s">
+        <v>185</v>
+      </c>
+      <c r="F46" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" t="s">
+        <v>118</v>
+      </c>
+      <c r="J46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="2" t="d">
+        <v>2018-05-22</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>167</v>
+      </c>
+      <c r="E47" t="s">
+        <v>185</v>
+      </c>
+      <c r="F47" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" t="s">
+        <v>119</v>
+      </c>
+      <c r="J47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="2" t="d">
+        <v>2018-05-23</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>168</v>
+      </c>
+      <c r="E48" t="s">
+        <v>186</v>
+      </c>
+      <c r="F48" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" t="s">
+        <v>111</v>
+      </c>
+      <c r="J48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="2" t="d">
+        <v>2018-05-23</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>169</v>
+      </c>
+      <c r="E49" t="s">
+        <v>187</v>
+      </c>
+      <c r="F49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" t="s">
+        <v>120</v>
+      </c>
+      <c r="J49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="2" t="d">
+        <v>2018-05-23</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>171</v>
+      </c>
+      <c r="E50" t="s">
+        <v>187</v>
+      </c>
+      <c r="F50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" t="s">
+        <v>121</v>
+      </c>
+      <c r="J50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="2" t="d">
+        <v>2018-05-23</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>170</v>
+      </c>
+      <c r="E51" t="s">
+        <v>188</v>
+      </c>
+      <c r="F51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" t="s">
+        <v>122</v>
+      </c>
+      <c r="J51" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="2" t="d">
+        <v>2018-05-23</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>172</v>
+      </c>
+      <c r="E52" t="s">
+        <v>188</v>
+      </c>
+      <c r="F52" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" t="s">
+        <v>123</v>
+      </c>
+      <c r="J52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="2" t="d">
+        <v>2018-05-23</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>173</v>
+      </c>
+      <c r="E53" t="s">
+        <v>188</v>
+      </c>
+      <c r="F53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" t="s">
+        <v>124</v>
+      </c>
+      <c r="J53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="2" t="d">
+        <v>2018-05-23</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>174</v>
+      </c>
+      <c r="E54" t="s">
+        <v>188</v>
+      </c>
+      <c r="F54" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" t="s">
+        <v>125</v>
+      </c>
+      <c r="J54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="2" t="d">
+        <v>2018-05-23</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>175</v>
+      </c>
+      <c r="E55" t="s">
+        <v>189</v>
+      </c>
+      <c r="F55" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" t="s">
+        <v>126</v>
+      </c>
+      <c r="J55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="2" t="d">
+        <v>2018-05-23</v>
+      </c>
+      <c r="C56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" t="s">
+        <v>176</v>
+      </c>
+      <c r="E56" t="s">
+        <v>52</v>
+      </c>
+      <c r="F56" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56" t="s">
+        <v>127</v>
+      </c>
+      <c r="J56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="2" t="d">
+        <v>2018-05-23</v>
+      </c>
+      <c r="C57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" t="s">
+        <v>177</v>
+      </c>
+      <c r="E57" t="s">
+        <v>52</v>
+      </c>
+      <c r="F57" t="s">
+        <v>34</v>
+      </c>
+      <c r="G57" t="s">
+        <v>127</v>
+      </c>
+      <c r="J57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="2" t="d">
+        <v>2018-05-23</v>
+      </c>
+      <c r="C58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" t="s">
+        <v>178</v>
+      </c>
+      <c r="E58" t="s">
+        <v>190</v>
+      </c>
+      <c r="F58" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" t="s">
+        <v>128</v>
+      </c>
+      <c r="J58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="2" t="d">
+        <v>2018-05-23</v>
+      </c>
+      <c r="C59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" t="s">
+        <v>179</v>
+      </c>
+      <c r="E59" t="s">
+        <v>190</v>
+      </c>
+      <c r="F59" t="s">
+        <v>34</v>
+      </c>
+      <c r="G59" t="s">
+        <v>128</v>
+      </c>
+      <c r="J59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="2" t="d">
+        <v>2018-05-24</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60" t="s">
+        <v>191</v>
+      </c>
+      <c r="F60" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" t="s">
+        <v>132</v>
+      </c>
+      <c r="J60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" s="2" t="d">
+        <v>2018-05-24</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>145</v>
+      </c>
+      <c r="E61" t="s">
+        <v>191</v>
+      </c>
+      <c r="F61" t="s">
+        <v>34</v>
+      </c>
+      <c r="G61" t="s">
+        <v>133</v>
+      </c>
+      <c r="J61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="2" t="d">
+        <v>2018-05-24</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" t="s">
+        <v>150</v>
+      </c>
+      <c r="E62" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" t="s">
+        <v>34</v>
+      </c>
+      <c r="G62" t="s">
+        <v>134</v>
+      </c>
+      <c r="J62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="2" t="d">
+        <v>2018-05-24</v>
+      </c>
+      <c r="C63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" t="s">
+        <v>151</v>
+      </c>
+      <c r="E63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63" t="s">
+        <v>135</v>
+      </c>
+      <c r="J63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="2" t="d">
+        <v>2018-05-24</v>
+      </c>
+      <c r="C64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" t="s">
+        <v>152</v>
+      </c>
+      <c r="E64" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" t="s">
+        <v>136</v>
+      </c>
+      <c r="J64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="2" t="d">
+        <v>2018-05-24</v>
+      </c>
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" t="s">
+        <v>153</v>
+      </c>
+      <c r="E65" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65" t="s">
+        <v>137</v>
+      </c>
+      <c r="J65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="2" t="d">
+        <v>2018-05-25</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>143</v>
+      </c>
+      <c r="E66" t="s">
+        <v>184</v>
+      </c>
+      <c r="F66" t="s">
+        <v>34</v>
+      </c>
+      <c r="G66" t="s">
+        <v>138</v>
+      </c>
+      <c r="J66" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" s="2" t="d">
+        <v>2018-05-25</v>
+      </c>
+      <c r="C67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" t="s">
+        <v>146</v>
+      </c>
+      <c r="E67" t="s">
+        <v>192</v>
+      </c>
+      <c r="F67" t="s">
+        <v>34</v>
+      </c>
+      <c r="G67" t="s">
+        <v>139</v>
+      </c>
+      <c r="J67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" s="2" t="d">
+        <v>2018-05-25</v>
+      </c>
+      <c r="C68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" t="s">
+        <v>148</v>
+      </c>
+      <c r="E68" t="s">
+        <v>193</v>
+      </c>
+      <c r="F68" t="s">
+        <v>34</v>
+      </c>
+      <c r="G68" t="s">
+        <v>140</v>
+      </c>
+      <c r="J68" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" s="2" t="d">
+        <v>2018-05-25</v>
+      </c>
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" t="s">
+        <v>147</v>
+      </c>
+      <c r="E69" t="s">
+        <v>180</v>
+      </c>
+      <c r="F69" t="s">
+        <v>34</v>
+      </c>
+      <c r="G69" t="s">
+        <v>141</v>
+      </c>
+      <c r="J69" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="2" t="d">
+        <v>2018-05-25</v>
+      </c>
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E70" t="s">
+        <v>182</v>
+      </c>
+      <c r="F70" t="s">
+        <v>34</v>
+      </c>
+      <c r="G70" t="s">
+        <v>142</v>
+      </c>
+      <c r="J70" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="2" t="d">
+        <v>2018-06-04</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>194</v>
+      </c>
+      <c r="E71" t="s">
+        <v>230</v>
+      </c>
+      <c r="F71" t="s">
+        <v>34</v>
+      </c>
+      <c r="G71" t="s">
+        <v>195</v>
+      </c>
+      <c r="J71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="2" t="d">
+        <v>2018-06-04</v>
+      </c>
+      <c r="C72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" t="s">
+        <v>196</v>
+      </c>
+      <c r="E72" t="s">
+        <v>189</v>
+      </c>
+      <c r="F72" t="s">
+        <v>34</v>
+      </c>
+      <c r="G72" t="s">
+        <v>197</v>
+      </c>
+      <c r="J72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="2" t="d">
+        <v>2018-06-05</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
+        <v>214</v>
+      </c>
+      <c r="E73" t="s">
+        <v>231</v>
+      </c>
+      <c r="F73" t="s">
+        <v>34</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="J73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="2" t="d">
+        <v>2018-06-05</v>
+      </c>
+      <c r="C74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" t="s">
+        <v>198</v>
+      </c>
+      <c r="E74" t="s">
+        <v>185</v>
+      </c>
+      <c r="F74" t="s">
+        <v>34</v>
+      </c>
+      <c r="G74" t="s">
+        <v>216</v>
+      </c>
+      <c r="J74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="d">
+        <v>2018-06-05</v>
+      </c>
+      <c r="C75" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" t="s">
+        <v>199</v>
+      </c>
+      <c r="E75" t="s">
+        <v>185</v>
+      </c>
+      <c r="F75" t="s">
+        <v>34</v>
+      </c>
+      <c r="G75" t="s">
+        <v>217</v>
+      </c>
+      <c r="J75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2" t="d">
+        <v>2018-06-06</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s">
+        <v>200</v>
+      </c>
+      <c r="E76" t="s">
+        <v>232</v>
+      </c>
+      <c r="F76" t="s">
+        <v>34</v>
+      </c>
+      <c r="G76" t="s">
+        <v>218</v>
+      </c>
+      <c r="J76" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" s="2" t="d">
+        <v>2018-06-06</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>201</v>
+      </c>
+      <c r="E77" t="s">
+        <v>233</v>
+      </c>
+      <c r="F77" t="s">
+        <v>34</v>
+      </c>
+      <c r="G77" t="s">
+        <v>219</v>
+      </c>
+      <c r="J77" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" s="2" t="d">
+        <v>2018-06-06</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s">
+        <v>202</v>
+      </c>
+      <c r="E78" t="s">
+        <v>233</v>
+      </c>
+      <c r="F78" t="s">
+        <v>34</v>
+      </c>
+      <c r="G78" t="s">
+        <v>219</v>
+      </c>
+      <c r="J78" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>74</v>
+      </c>
+      <c r="B79" s="2" t="d">
+        <v>2018-06-06</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>203</v>
+      </c>
+      <c r="E79" t="s">
+        <v>233</v>
+      </c>
+      <c r="F79" t="s">
+        <v>34</v>
+      </c>
+      <c r="G79" t="s">
+        <v>220</v>
+      </c>
+      <c r="J79" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>74</v>
+      </c>
+      <c r="B80" s="2" t="d">
+        <v>2018-06-06</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>204</v>
+      </c>
+      <c r="E80" t="s">
+        <v>233</v>
+      </c>
+      <c r="F80" t="s">
+        <v>34</v>
+      </c>
+      <c r="G80" t="s">
+        <v>220</v>
+      </c>
+      <c r="J80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>74</v>
+      </c>
+      <c r="B81" s="2" t="d">
+        <v>2018-06-06</v>
+      </c>
+      <c r="C81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" t="s">
+        <v>205</v>
+      </c>
+      <c r="E81" t="s">
+        <v>187</v>
+      </c>
+      <c r="F81" t="s">
+        <v>34</v>
+      </c>
+      <c r="G81" t="s">
+        <v>221</v>
+      </c>
+      <c r="J81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>74</v>
+      </c>
+      <c r="B82" s="2" t="d">
+        <v>2018-06-06</v>
+      </c>
+      <c r="C82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" t="s">
+        <v>206</v>
+      </c>
+      <c r="E82" t="s">
+        <v>187</v>
+      </c>
+      <c r="F82" t="s">
+        <v>34</v>
+      </c>
+      <c r="G82" t="s">
+        <v>222</v>
+      </c>
+      <c r="J82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>74</v>
+      </c>
+      <c r="B83" s="2" t="d">
+        <v>2018-06-06</v>
+      </c>
+      <c r="C83" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" t="s">
+        <v>207</v>
+      </c>
+      <c r="E83" t="s">
+        <v>187</v>
+      </c>
+      <c r="F83" t="s">
+        <v>34</v>
+      </c>
+      <c r="G83" t="s">
+        <v>223</v>
+      </c>
+      <c r="J83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>74</v>
+      </c>
+      <c r="B84" s="2" t="d">
+        <v>2018-06-06</v>
+      </c>
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" t="s">
+        <v>208</v>
+      </c>
+      <c r="E84" t="s">
+        <v>234</v>
+      </c>
+      <c r="F84" t="s">
+        <v>34</v>
+      </c>
+      <c r="G84" t="s">
+        <v>224</v>
+      </c>
+      <c r="J84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>74</v>
+      </c>
+      <c r="B85" s="2" t="d">
+        <v>2018-06-07</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>209</v>
+      </c>
+      <c r="E85" t="s">
+        <v>191</v>
+      </c>
+      <c r="F85" t="s">
+        <v>34</v>
+      </c>
+      <c r="G85" t="s">
+        <v>225</v>
+      </c>
+      <c r="J85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>74</v>
+      </c>
+      <c r="B86" s="2" t="d">
+        <v>2018-06-07</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
+        <v>210</v>
+      </c>
+      <c r="E86" t="s">
+        <v>191</v>
+      </c>
+      <c r="F86" t="s">
+        <v>34</v>
+      </c>
+      <c r="G86" t="s">
+        <v>226</v>
+      </c>
+      <c r="J86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>74</v>
+      </c>
+      <c r="B87" s="2" t="d">
+        <v>2018-06-07</v>
+      </c>
+      <c r="C87" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" t="s">
+        <v>211</v>
+      </c>
+      <c r="E87" t="s">
+        <v>186</v>
+      </c>
+      <c r="F87" t="s">
+        <v>34</v>
+      </c>
+      <c r="G87" t="s">
+        <v>227</v>
+      </c>
+      <c r="J87" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>74</v>
+      </c>
+      <c r="B88" s="2" t="d">
+        <v>2018-06-08</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" t="s">
+        <v>212</v>
+      </c>
+      <c r="E88" t="s">
+        <v>231</v>
+      </c>
+      <c r="F88" t="s">
+        <v>34</v>
+      </c>
+      <c r="G88" t="s">
+        <v>228</v>
+      </c>
+      <c r="J88" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>74</v>
+      </c>
+      <c r="B89" s="2" t="d">
+        <v>2018-06-08</v>
+      </c>
+      <c r="C89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" t="s">
+        <v>213</v>
+      </c>
+      <c r="E89" t="s">
+        <v>230</v>
+      </c>
+      <c r="F89" t="s">
+        <v>34</v>
+      </c>
+      <c r="G89" t="s">
+        <v>229</v>
+      </c>
+      <c r="J89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>74</v>
+      </c>
+      <c r="B90" s="2" t="d">
+        <v>2018-06-11</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" t="s">
+        <v>236</v>
+      </c>
+      <c r="E90" t="s">
+        <v>52</v>
+      </c>
+      <c r="F90" t="s">
+        <v>34</v>
+      </c>
+      <c r="G90" t="s">
+        <v>270</v>
+      </c>
+      <c r="J90" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>74</v>
+      </c>
+      <c r="B91" s="2" t="d">
+        <v>2018-06-11</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" t="s">
+        <v>237</v>
+      </c>
+      <c r="E91" t="s">
+        <v>52</v>
+      </c>
+      <c r="F91" t="s">
+        <v>34</v>
+      </c>
+      <c r="G91" t="s">
+        <v>270</v>
+      </c>
+      <c r="J91" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>74</v>
+      </c>
+      <c r="B92" s="2" t="d">
+        <v>2018-06-11</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" t="s">
+        <v>238</v>
+      </c>
+      <c r="E92" t="s">
+        <v>47</v>
+      </c>
+      <c r="F92" t="s">
+        <v>34</v>
+      </c>
+      <c r="G92" t="s">
+        <v>271</v>
+      </c>
+      <c r="J92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>74</v>
+      </c>
+      <c r="B93" s="2" t="d">
+        <v>2018-06-11</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" t="s">
+        <v>239</v>
+      </c>
+      <c r="E93" t="s">
+        <v>47</v>
+      </c>
+      <c r="F93" t="s">
+        <v>34</v>
+      </c>
+      <c r="G93" t="s">
+        <v>271</v>
+      </c>
+      <c r="J93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>74</v>
+      </c>
+      <c r="B94" s="2" t="d">
+        <v>2018-06-11</v>
+      </c>
+      <c r="C94" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" t="s">
+        <v>240</v>
+      </c>
+      <c r="E94" t="s">
+        <v>185</v>
+      </c>
+      <c r="F94" t="s">
+        <v>34</v>
+      </c>
+      <c r="G94" t="s">
+        <v>272</v>
+      </c>
+      <c r="J94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>74</v>
+      </c>
+      <c r="B95" s="2" t="d">
+        <v>2018-06-11</v>
+      </c>
+      <c r="C95" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" t="s">
+        <v>241</v>
+      </c>
+      <c r="E95" t="s">
+        <v>185</v>
+      </c>
+      <c r="F95" t="s">
+        <v>34</v>
+      </c>
+      <c r="G95" t="s">
+        <v>273</v>
+      </c>
+      <c r="J95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>74</v>
+      </c>
+      <c r="B96" s="2" t="d">
+        <v>2018-06-12</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" t="s">
+        <v>242</v>
+      </c>
+      <c r="E96" t="s">
+        <v>191</v>
+      </c>
+      <c r="F96" t="s">
+        <v>34</v>
+      </c>
+      <c r="G96" t="s">
+        <v>274</v>
+      </c>
+      <c r="J96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>74</v>
+      </c>
+      <c r="B97" s="2" t="d">
+        <v>2018-06-12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" t="s">
+        <v>243</v>
+      </c>
+      <c r="E97" t="s">
+        <v>191</v>
+      </c>
+      <c r="F97" t="s">
+        <v>34</v>
+      </c>
+      <c r="G97" t="s">
+        <v>275</v>
+      </c>
+      <c r="J97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>74</v>
+      </c>
+      <c r="B98" s="2" t="d">
+        <v>2018-06-12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" t="s">
+        <v>244</v>
+      </c>
+      <c r="E98" t="s">
+        <v>230</v>
+      </c>
+      <c r="F98" t="s">
+        <v>34</v>
+      </c>
+      <c r="G98" t="s">
+        <v>276</v>
+      </c>
+      <c r="J98" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>74</v>
+      </c>
+      <c r="B99" s="2" t="d">
+        <v>2018-06-13</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" t="s">
+        <v>246</v>
+      </c>
+      <c r="E99" t="s">
+        <v>52</v>
+      </c>
+      <c r="F99" t="s">
+        <v>34</v>
+      </c>
+      <c r="G99" t="s">
+        <v>245</v>
+      </c>
+      <c r="J99" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>74</v>
+      </c>
+      <c r="B100" s="2" t="d">
+        <v>2018-06-13</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" t="s">
+        <v>247</v>
+      </c>
+      <c r="E100" t="s">
+        <v>52</v>
+      </c>
+      <c r="F100" t="s">
+        <v>34</v>
+      </c>
+      <c r="G100" t="s">
+        <v>245</v>
+      </c>
+      <c r="J100" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>74</v>
+      </c>
+      <c r="B101" s="2" t="d">
+        <v>2018-06-13</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" t="s">
+        <v>248</v>
+      </c>
+      <c r="E101" t="s">
+        <v>106</v>
+      </c>
+      <c r="F101" t="s">
+        <v>34</v>
+      </c>
+      <c r="G101" t="s">
+        <v>256</v>
+      </c>
+      <c r="J101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>74</v>
+      </c>
+      <c r="B102" s="2" t="d">
+        <v>2018-06-13</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" t="s">
+        <v>249</v>
+      </c>
+      <c r="E102" t="s">
+        <v>106</v>
+      </c>
+      <c r="F102" t="s">
+        <v>34</v>
+      </c>
+      <c r="G102" t="s">
+        <v>256</v>
+      </c>
+      <c r="J102" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>74</v>
+      </c>
+      <c r="B103" s="2" t="d">
+        <v>2018-06-13</v>
+      </c>
+      <c r="C103" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" t="s">
+        <v>250</v>
+      </c>
+      <c r="E103" t="s">
+        <v>278</v>
+      </c>
+      <c r="F103" t="s">
+        <v>34</v>
+      </c>
+      <c r="G103" t="s">
+        <v>257</v>
+      </c>
+      <c r="J103" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>74</v>
+      </c>
+      <c r="B104" s="2" t="d">
+        <v>2018-06-13</v>
+      </c>
+      <c r="C104" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" t="s">
+        <v>251</v>
+      </c>
+      <c r="E104" t="s">
+        <v>279</v>
+      </c>
+      <c r="F104" t="s">
+        <v>34</v>
+      </c>
+      <c r="G104" t="s">
+        <v>258</v>
+      </c>
+      <c r="J104" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>74</v>
+      </c>
+      <c r="B105" s="2" t="d">
+        <v>2018-06-13</v>
+      </c>
+      <c r="C105" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" t="s">
+        <v>252</v>
+      </c>
+      <c r="E105" t="s">
+        <v>279</v>
+      </c>
+      <c r="F105" t="s">
+        <v>34</v>
+      </c>
+      <c r="G105" t="s">
+        <v>259</v>
+      </c>
+      <c r="J105" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>74</v>
+      </c>
+      <c r="B106" s="2" t="d">
+        <v>2018-06-14</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" t="s">
+        <v>253</v>
+      </c>
+      <c r="E106" t="s">
+        <v>233</v>
+      </c>
+      <c r="F106" t="s">
+        <v>34</v>
+      </c>
+      <c r="G106" t="s">
+        <v>255</v>
+      </c>
+      <c r="J106" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>74</v>
+      </c>
+      <c r="B107" s="2" t="d">
+        <v>2018-06-14</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" t="s">
+        <v>254</v>
+      </c>
+      <c r="E107" t="s">
+        <v>233</v>
+      </c>
+      <c r="F107" t="s">
+        <v>34</v>
+      </c>
+      <c r="G107" t="s">
+        <v>255</v>
+      </c>
+      <c r="J107" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>74</v>
+      </c>
+      <c r="B108" s="2" t="d">
+        <v>2018-06-14</v>
+      </c>
+      <c r="C108" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" t="s">
+        <v>268</v>
+      </c>
+      <c r="E108" t="s">
+        <v>280</v>
+      </c>
+      <c r="F108" t="s">
+        <v>34</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="J108" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>74</v>
+      </c>
+      <c r="B109" s="2" t="d">
+        <v>2018-06-15</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" t="s">
+        <v>262</v>
+      </c>
+      <c r="E109" t="s">
+        <v>52</v>
+      </c>
+      <c r="F109" t="s">
+        <v>34</v>
+      </c>
+      <c r="G109" t="s">
+        <v>260</v>
+      </c>
+      <c r="J109" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>74</v>
+      </c>
+      <c r="B110" s="2" t="d">
+        <v>2018-06-15</v>
+      </c>
+      <c r="C110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" t="s">
+        <v>263</v>
+      </c>
+      <c r="E110" t="s">
+        <v>52</v>
+      </c>
+      <c r="F110" t="s">
+        <v>34</v>
+      </c>
+      <c r="G110" t="s">
+        <v>260</v>
+      </c>
+      <c r="J110" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>74</v>
+      </c>
+      <c r="B111" s="2" t="d">
+        <v>2018-06-15</v>
+      </c>
+      <c r="C111" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" t="s">
+        <v>264</v>
+      </c>
+      <c r="E111" t="s">
+        <v>190</v>
+      </c>
+      <c r="F111" t="s">
+        <v>34</v>
+      </c>
+      <c r="G111" t="s">
+        <v>261</v>
+      </c>
+      <c r="J111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>74</v>
+      </c>
+      <c r="B112" s="2" t="d">
+        <v>2018-06-15</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" t="s">
+        <v>265</v>
+      </c>
+      <c r="E112" t="s">
+        <v>190</v>
+      </c>
+      <c r="F112" t="s">
+        <v>34</v>
+      </c>
+      <c r="G112" t="s">
+        <v>261</v>
+      </c>
+      <c r="J112" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>74</v>
+      </c>
+      <c r="B113" s="2" t="d">
+        <v>2018-06-15</v>
+      </c>
+      <c r="C113" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" t="s">
+        <v>267</v>
+      </c>
+      <c r="E113" t="s">
+        <v>281</v>
+      </c>
+      <c r="F113" t="s">
+        <v>34</v>
+      </c>
+      <c r="G113" t="s">
+        <v>266</v>
+      </c>
+      <c r="J113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>74</v>
+      </c>
+      <c r="B114" s="2" t="d">
+        <v>2018-06-18</v>
+      </c>
+      <c r="C114" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" t="s">
+        <v>287</v>
+      </c>
+      <c r="E114" t="s">
+        <v>281</v>
+      </c>
+      <c r="F114" t="s">
+        <v>34</v>
+      </c>
+      <c r="G114" t="s">
+        <v>305</v>
+      </c>
+      <c r="J114" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>74</v>
+      </c>
+      <c r="B115" s="2" t="d">
+        <v>2018-06-18</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" t="s">
+        <v>288</v>
+      </c>
+      <c r="E115" t="s">
+        <v>283</v>
+      </c>
+      <c r="F115" t="s">
+        <v>34</v>
+      </c>
+      <c r="G115" t="s">
+        <v>306</v>
+      </c>
+      <c r="J115" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>74</v>
+      </c>
+      <c r="B116" s="2" t="d">
+        <v>2018-06-18</v>
+      </c>
+      <c r="C116" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" t="s">
+        <v>289</v>
+      </c>
+      <c r="E116" t="s">
+        <v>283</v>
+      </c>
+      <c r="F116" t="s">
+        <v>34</v>
+      </c>
+      <c r="G116" t="s">
+        <v>306</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>74</v>
+      </c>
+      <c r="B117" s="2" t="d">
+        <v>2018-06-18</v>
+      </c>
+      <c r="C117" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" t="s">
+        <v>290</v>
+      </c>
+      <c r="E117" t="s">
+        <v>283</v>
+      </c>
+      <c r="F117" t="s">
+        <v>34</v>
+      </c>
+      <c r="G117" t="s">
+        <v>307</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>74</v>
+      </c>
+      <c r="B118" s="2" t="d">
+        <v>2018-06-18</v>
+      </c>
+      <c r="C118" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" t="s">
+        <v>292</v>
+      </c>
+      <c r="E118" t="s">
+        <v>283</v>
+      </c>
+      <c r="F118" t="s">
+        <v>34</v>
+      </c>
+      <c r="G118" t="s">
+        <v>307</v>
+      </c>
+      <c r="J118" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>74</v>
+      </c>
+      <c r="B119" s="2" t="d">
+        <v>2018-06-18</v>
+      </c>
+      <c r="C119" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" t="s">
+        <v>291</v>
+      </c>
+      <c r="E119" t="s">
+        <v>284</v>
+      </c>
+      <c r="F119" t="s">
+        <v>34</v>
+      </c>
+      <c r="G119" t="s">
+        <v>309</v>
+      </c>
+      <c r="J119" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>74</v>
+      </c>
+      <c r="B120" s="2" t="d">
+        <v>2018-06-18</v>
+      </c>
+      <c r="C120" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" t="s">
+        <v>293</v>
+      </c>
+      <c r="E120" t="s">
+        <v>284</v>
+      </c>
+      <c r="F120" t="s">
+        <v>34</v>
+      </c>
+      <c r="G120" t="s">
+        <v>310</v>
+      </c>
+      <c r="J120" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>74</v>
+      </c>
+      <c r="B121" s="2" t="d">
+        <v>2018-06-19</v>
+      </c>
+      <c r="C121" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" t="s">
+        <v>294</v>
+      </c>
+      <c r="E121" t="s">
+        <v>285</v>
+      </c>
+      <c r="F121" t="s">
+        <v>34</v>
+      </c>
+      <c r="G121" t="s">
+        <v>308</v>
+      </c>
+      <c r="J121" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>74</v>
+      </c>
+      <c r="B122" s="2" t="d">
+        <v>2018-06-19</v>
+      </c>
+      <c r="C122" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" t="s">
+        <v>295</v>
+      </c>
+      <c r="E122" t="s">
+        <v>282</v>
+      </c>
+      <c r="F122" t="s">
+        <v>34</v>
+      </c>
+      <c r="G122" t="s">
+        <v>311</v>
+      </c>
+      <c r="J122" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>74</v>
+      </c>
+      <c r="B123" s="2" t="d">
+        <v>2018-06-19</v>
+      </c>
+      <c r="C123" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" t="s">
+        <v>296</v>
+      </c>
+      <c r="E123" t="s">
+        <v>282</v>
+      </c>
+      <c r="F123" t="s">
+        <v>34</v>
+      </c>
+      <c r="G123" t="s">
+        <v>312</v>
+      </c>
+      <c r="J123" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>74</v>
+      </c>
+      <c r="B124" s="2" t="d">
+        <v>2018-06-19</v>
+      </c>
+      <c r="C124" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" t="s">
+        <v>297</v>
+      </c>
+      <c r="E124" t="s">
+        <v>278</v>
+      </c>
+      <c r="F124" t="s">
+        <v>34</v>
+      </c>
+      <c r="G124" t="s">
+        <v>313</v>
+      </c>
+      <c r="J124" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>74</v>
+      </c>
+      <c r="B125" s="2" t="d">
+        <v>2018-06-19</v>
+      </c>
+      <c r="C125" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" t="s">
+        <v>298</v>
+      </c>
+      <c r="E125" t="s">
+        <v>279</v>
+      </c>
+      <c r="F125" t="s">
+        <v>34</v>
+      </c>
+      <c r="G125" t="s">
+        <v>314</v>
+      </c>
+      <c r="J125" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>74</v>
+      </c>
+      <c r="B126" s="2" t="d">
+        <v>2018-06-20</v>
+      </c>
+      <c r="C126" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" t="s">
+        <v>299</v>
+      </c>
+      <c r="E126" t="s">
+        <v>284</v>
+      </c>
+      <c r="F126" t="s">
+        <v>34</v>
+      </c>
+      <c r="G126" t="s">
+        <v>315</v>
+      </c>
+      <c r="J126" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>74</v>
+      </c>
+      <c r="B127" s="2" t="d">
+        <v>2018-06-21</v>
+      </c>
+      <c r="C127" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" t="s">
+        <v>300</v>
+      </c>
+      <c r="E127" t="s">
+        <v>283</v>
+      </c>
+      <c r="F127" t="s">
+        <v>34</v>
+      </c>
+      <c r="G127" t="s">
+        <v>316</v>
+      </c>
+      <c r="J127" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>74</v>
+      </c>
+      <c r="B128" s="2" t="d">
+        <v>2018-06-21</v>
+      </c>
+      <c r="C128" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128" t="s">
+        <v>301</v>
+      </c>
+      <c r="E128" t="s">
+        <v>283</v>
+      </c>
+      <c r="F128" t="s">
+        <v>34</v>
+      </c>
+      <c r="G128" t="s">
+        <v>316</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>74</v>
+      </c>
+      <c r="B129" s="2" t="d">
+        <v>2018-06-21</v>
+      </c>
+      <c r="C129" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" t="s">
+        <v>302</v>
+      </c>
+      <c r="E129" t="s">
+        <v>286</v>
+      </c>
+      <c r="F129" t="s">
+        <v>34</v>
+      </c>
+      <c r="G129" t="s">
+        <v>317</v>
+      </c>
+      <c r="J129" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>74</v>
+      </c>
+      <c r="B130" s="2" t="d">
+        <v>2018-06-21</v>
+      </c>
+      <c r="C130" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" t="s">
+        <v>303</v>
+      </c>
+      <c r="E130" t="s">
+        <v>286</v>
+      </c>
+      <c r="F130" t="s">
+        <v>34</v>
+      </c>
+      <c r="G130" t="s">
+        <v>318</v>
+      </c>
+      <c r="J130" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>74</v>
+      </c>
+      <c r="B131" s="2" t="d">
+        <v>2018-06-22</v>
+      </c>
+      <c r="C131" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" t="s">
+        <v>304</v>
+      </c>
+      <c r="E131" t="s">
+        <v>282</v>
+      </c>
+      <c r="F131" t="s">
+        <v>34</v>
+      </c>
+      <c r="G131" t="s">
+        <v>319</v>
+      </c>
+      <c r="J131" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:L113" xr:uid="{57991546-C368-6445-9254-49423602A7BB}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -2790,26 +6596,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2818,7 +6624,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
